--- a/python/three/night Error t1=6 t2=3 t3=2 δ1=0.5 δ2=0.2.xlsx
+++ b/python/three/night Error t1=6 t2=3 t3=2 δ1=0.5 δ2=0.2.xlsx
@@ -476,10 +476,10 @@
         <v>1.2e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>5.85</v>
+        <v>5.74</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.49</v>
+        <v>-4.34</v>
       </c>
     </row>
     <row r="3">
@@ -498,10 +498,10 @@
         <v>1.2</v>
       </c>
       <c r="E3" t="n">
-        <v>27.6</v>
+        <v>6.14</v>
       </c>
       <c r="F3" t="n">
-        <v>819</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4">
@@ -520,10 +520,10 @@
         <v>3.93</v>
       </c>
       <c r="E4" t="n">
-        <v>4.51</v>
+        <v>5.03</v>
       </c>
       <c r="F4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
@@ -542,10 +542,10 @@
         <v>-0.121</v>
       </c>
       <c r="E5" t="n">
-        <v>0.239</v>
+        <v>0.0699</v>
       </c>
       <c r="F5" t="n">
-        <v>-52.1</v>
+        <v>-86</v>
       </c>
     </row>
     <row r="6">
@@ -564,10 +564,10 @@
         <v>-7.61</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00759</v>
+        <v>0.188</v>
       </c>
       <c r="F6" t="n">
-        <v>-96.2</v>
+        <v>-5.85</v>
       </c>
     </row>
     <row r="7">
@@ -589,7 +589,7 @@
         <v>0.000101</v>
       </c>
       <c r="F7" t="n">
-        <v>0.835</v>
+        <v>0.587</v>
       </c>
     </row>
     <row r="8">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>221000</v>
+        <v>223000</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1150</v>
+        <v>1160</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
